--- a/Data/EC/NIT-9012784908.xlsx
+++ b/Data/EC/NIT-9012784908.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC05E2C6-B48C-4589-BCAF-CF60F25004A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B5506B2-3183-46D8-A678-BA681A987AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{252340DE-5D99-4A9F-9F04-D907BA62760B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3DADBDCC-825F-46E1-8748-5A814ECE83A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,6 +71,36 @@
     <t>JORGE LUIS CORREA MORALES</t>
   </si>
   <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>2307</t>
   </si>
   <si>
@@ -83,34 +113,10 @@
     <t>WILLIAM DAVID OJEDA MARQUEZ</t>
   </si>
   <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>5896499</t>
@@ -119,58 +125,19 @@
     <t>JESUS ALBERTO MORENO ALARCON</t>
   </si>
   <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
     <t>2503</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1003645725</t>
-  </si>
-  <si>
-    <t>YEISON MANUEL GERONIMO OLEA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>73561974</t>
-  </si>
-  <si>
-    <t>FRANSISCO JAVIER HURTADO MEDINA</t>
-  </si>
-  <si>
-    <t>1051420899</t>
-  </si>
-  <si>
-    <t>ARELIS NAIS VEGA SANDOVAL</t>
-  </si>
-  <si>
-    <t>9095637</t>
-  </si>
-  <si>
-    <t>HERNAN PADILLA VILLA</t>
-  </si>
-  <si>
-    <t>1072249666</t>
-  </si>
-  <si>
-    <t>JULIO MANUEL MUSLACO PACHECO</t>
-  </si>
-  <si>
-    <t>1044782786</t>
-  </si>
-  <si>
-    <t>HECTOR VEGA SANDOVAL</t>
-  </si>
-  <si>
-    <t>1032439576</t>
-  </si>
-  <si>
-    <t>JULIO ERNESTO PARRA FIGUEROA</t>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -214,7 +181,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2856DD10-C9C2-AE91-585D-DCE68A0BF24D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C9649C-AEFF-F951-DF1E-1FFD6C3A16DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,32 +902,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A4F995-545C-413D-9B73-57E2198DF3EC}">
-  <dimension ref="B2:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81508F-4938-462C-B9C9-20F28BE5E1EB}">
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -969,7 +936,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -980,7 +947,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -991,7 +958,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1002,10 +969,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1018,8 +985,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1034,15 +1001,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1665413</v>
+        <v>1423317</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,27 +1017,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1090,16 +1057,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>7733</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1122,30 +1089,30 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F17" s="18">
         <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1168,30 +1135,30 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
         <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1214,7 +1181,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1237,15 +1204,15 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1254,13 +1221,13 @@
         <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1283,30 +1250,30 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1329,41 +1296,41 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>7733</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1375,41 +1342,41 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1421,64 +1388,64 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1490,18 +1457,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1513,41 +1480,41 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1559,87 +1526,87 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1651,18 +1618,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>56940</v>
@@ -1674,41 +1641,41 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F42" s="18">
         <v>56940</v>
@@ -1720,18 +1687,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" s="18">
         <v>56940</v>
@@ -1743,15 +1710,15 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>32</v>
@@ -1760,155 +1727,63 @@
         <v>56940</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G45" s="18">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="24">
+        <v>53144</v>
+      </c>
+      <c r="G45" s="24">
         <v>1423500</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="17" t="s">
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="H50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="23" t="s">
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G49" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H50:J50"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012784908.xlsx
+++ b/Data/EC/NIT-9012784908.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B5506B2-3183-46D8-A678-BA681A987AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E90EB1-4E38-4300-9E08-2805247DFF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3DADBDCC-825F-46E1-8748-5A814ECE83A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7CC543D-7F06-4E75-9125-CE79EB287270}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="58">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,73 +71,112 @@
     <t>JORGE LUIS CORREA MORALES</t>
   </si>
   <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>6389634</t>
+  </si>
+  <si>
+    <t>WILLIAM DAVID OJEDA MARQUEZ</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>2405</t>
   </si>
   <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>6389634</t>
-  </si>
-  <si>
-    <t>WILLIAM DAVID OJEDA MARQUEZ</t>
+    <t>5896499</t>
+  </si>
+  <si>
+    <t>JESUS ALBERTO MORENO ALARCON</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>5896499</t>
-  </si>
-  <si>
-    <t>JESUS ALBERTO MORENO ALARCON</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
+    <t>1072249666</t>
+  </si>
+  <si>
+    <t>JULIO MANUEL MUSLACO PACHECO</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1032439576</t>
+  </si>
+  <si>
+    <t>JULIO ERNESTO PARRA FIGUEROA</t>
+  </si>
+  <si>
+    <t>1044782786</t>
+  </si>
+  <si>
+    <t>HECTOR VEGA SANDOVAL</t>
+  </si>
+  <si>
+    <t>1003645725</t>
+  </si>
+  <si>
+    <t>YEISON MANUEL GERONIMO OLEA</t>
+  </si>
+  <si>
+    <t>1051420899</t>
+  </si>
+  <si>
+    <t>ARELIS NAIS VEGA SANDOVAL</t>
+  </si>
+  <si>
+    <t>73561974</t>
+  </si>
+  <si>
+    <t>FRANSISCO JAVIER HURTADO MEDINA</t>
+  </si>
+  <si>
+    <t>9095637</t>
+  </si>
+  <si>
+    <t>HERNAN PADILLA VILLA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -236,7 +275,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +290,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +490,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +534,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C9649C-AEFF-F951-DF1E-1FFD6C3A16DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7998956-63BE-9F21-B04D-6AB895EE7DCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81508F-4938-462C-B9C9-20F28BE5E1EB}">
-  <dimension ref="B2:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CFF13D-37DA-4A61-BC72-64C12C246221}">
+  <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -914,7 +953,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -927,7 +966,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +1011,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +1043,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1423317</v>
+        <v>1872093</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,17 +1059,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1057,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1080,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>7733</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1106,7 +1145,7 @@
         <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,22 +1153,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1146,13 +1185,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1160,22 +1199,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1192,13 +1231,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1206,13 +1245,13 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1221,7 +1260,7 @@
         <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1244,7 +1283,7 @@
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1252,22 +1291,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1284,13 +1323,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1298,22 +1337,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>7733</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1321,22 +1360,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1344,16 +1383,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1367,22 +1406,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1390,16 +1429,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1413,22 +1452,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F31" s="18">
         <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1436,16 +1475,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1459,22 +1498,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="18">
         <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1482,16 +1521,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1505,22 +1544,22 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F35" s="18">
         <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1528,16 +1567,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1551,22 +1590,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1574,22 +1613,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1597,16 +1636,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1620,22 +1659,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F40" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1643,16 +1682,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" s="18">
         <v>56940</v>
@@ -1666,22 +1705,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1689,13 +1728,13 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>31</v>
@@ -1712,16 +1751,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F44" s="18">
         <v>56940</v>
@@ -1734,56 +1773,240 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="24">
-        <v>53144</v>
-      </c>
-      <c r="G45" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="H50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="H51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G53" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="H58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H58:J58"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
